--- a/FileGunBasin/9 August-04 StormBasin/SDDX - ChatGPT Thread Tools Herramientas.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - ChatGPT Thread Tools Herramientas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33991801-22B0-5448-9E67-2193AAD9930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB244790-6AA2-124F-B27E-31EADA5BDEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{FC2F1416-21EE-844D-B6FA-128CC66549BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>https://chatgpt.com/c/68a7137b-772c-8333-8e86-c41cc379bad0</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>preserving bold and linebreaks in fb posts</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/68a79eed-601c-832a-b67f-53087d8b64c2</t>
+  </si>
+  <si>
+    <t>text expand snippetCCMOD25</t>
+  </si>
+  <si>
+    <t>change proposed sql into 5 columns</t>
+  </si>
+  <si>
+    <t>Kerberos DB Field Extraction</t>
   </si>
 </sst>
 </file>
@@ -77,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +114,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -115,11 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,11 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC59199-8D28-5743-8735-6C342BE5208F}">
-  <dimension ref="E1:E19"/>
+  <dimension ref="E1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,8 +509,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - ChatGPT Thread Tools Herramientas.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - ChatGPT Thread Tools Herramientas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB244790-6AA2-124F-B27E-31EADA5BDEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9BF3B7-0314-4747-A6FC-78537B7A09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{FC2F1416-21EE-844D-B6FA-128CC66549BB}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +86,14 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,17 +138,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,8 +487,8 @@
   <dimension ref="E1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +533,7 @@
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -534,6 +545,9 @@
     <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{857A59AE-994A-EB4E-B220-0CFF303AA7B2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FileGunBasin/9 August-04 StormBasin/SDDX - ChatGPT Thread Tools Herramientas.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - ChatGPT Thread Tools Herramientas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9BF3B7-0314-4747-A6FC-78537B7A09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566D7582-CC5F-D342-AEA7-DD96FD6818BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{FC2F1416-21EE-844D-B6FA-128CC66549BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>https://chatgpt.com/c/68a7137b-772c-8333-8e86-c41cc379bad0</t>
   </si>
@@ -60,6 +60,87 @@
   </si>
   <si>
     <t>Kerberos DB Field Extraction</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/68b2540b-2584-8321-b9c9-9bfaa8ac6050</t>
+  </si>
+  <si>
+    <t>Burnaby Tool</t>
+  </si>
+  <si>
+    <t>please create midjourney prompts for me to use to create logos for my rank and rent websites about duct cleaning they must include no text, be somewhat minimalistic and logo looking. and generally have a transparent bg or can be transitioned easily to a png through a converter tool (from the layout / background of the logo)</t>
+  </si>
+  <si>
+    <t>rank and rent site image logos</t>
+  </si>
+  <si>
+    <t>ann arbor</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>flint</t>
+  </si>
+  <si>
+    <t>jackson</t>
+  </si>
+  <si>
+    <t>tuscaloosa</t>
+  </si>
+  <si>
+    <t>peoria</t>
+  </si>
+  <si>
+    <t>springfield</t>
+  </si>
+  <si>
+    <t>chattanooga</t>
+  </si>
+  <si>
+    <t>charleston</t>
+  </si>
+  <si>
+    <t>augusta</t>
+  </si>
+  <si>
+    <t>ft myers</t>
+  </si>
+  <si>
+    <t>cape coral</t>
+  </si>
+  <si>
+    <t>pembroke pines</t>
+  </si>
+  <si>
+    <t>savannha</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>wy</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>il</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
 </sst>
 </file>
@@ -142,13 +223,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC59199-8D28-5743-8735-6C342BE5208F}">
-  <dimension ref="E1:E38"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,8 +628,218 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="7"/>
+      <c r="O55" t="s">
+        <v>18</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R55" s="7"/>
+      <c r="S55" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W55" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" s="7"/>
+      <c r="O56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P56" s="7"/>
+      <c r="Q56" t="s">
+        <v>31</v>
+      </c>
+      <c r="R56" s="7"/>
+      <c r="S56" t="s">
+        <v>32</v>
+      </c>
+      <c r="T56" s="7"/>
+      <c r="U56" t="s">
+        <v>33</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W56" t="s">
+        <v>33</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E26" r:id="rId1" xr:uid="{857A59AE-994A-EB4E-B220-0CFF303AA7B2}"/>
